--- a/Resources/monthly_home_sales.xlsx
+++ b/Resources/monthly_home_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab74b0f1fe3ad570/Desktop/Challenges/Austin_Housing_Market/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ADBE80D-74A6-428F-AB80-90B8300FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{2ADBE80D-74A6-428F-AB80-90B8300FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDC0D28-9104-48B6-B634-7A45FCEFF818}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{10CE9F22-9622-4826-B65B-A329A3C5FEE1}"/>
+    <workbookView xWindow="6036" yWindow="2676" windowWidth="23040" windowHeight="12204" xr2:uid="{10CE9F22-9622-4826-B65B-A329A3C5FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,25 +38,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Date</t>
+    <t>date</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>sales</t>
   </si>
   <si>
-    <t>Dollar Volume</t>
+    <t>dollar_volume</t>
   </si>
   <si>
-    <t>Average Price</t>
+    <t>average_price</t>
   </si>
   <si>
-    <t>Median Price</t>
+    <t>median_price</t>
   </si>
   <si>
-    <t>Total Listings</t>
+    <t>total_listings</t>
   </si>
   <si>
-    <t>Months Inventory</t>
+    <t>months_inventory</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Resources/monthly_home_sales.xlsx
+++ b/Resources/monthly_home_sales.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab74b0f1fe3ad570/Desktop/Challenges/Austin_Housing_Market/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{2ADBE80D-74A6-428F-AB80-90B8300FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDC0D28-9104-48B6-B634-7A45FCEFF818}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{2ADBE80D-74A6-428F-AB80-90B8300FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A83A632-6599-45A7-9712-F429C2681C17}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="2676" windowWidth="23040" windowHeight="12204" xr2:uid="{10CE9F22-9622-4826-B65B-A329A3C5FEE1}"/>
+    <workbookView minimized="1" xWindow="5256" yWindow="396" windowWidth="24960" windowHeight="15288" xr2:uid="{10CE9F22-9622-4826-B65B-A329A3C5FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$401</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -168,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,13 +476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006FD09B-0722-46E6-A5D0-FCBEED71FA87}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.109375" bestFit="1" customWidth="1"/>
@@ -9707,6 +9712,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G401" xr:uid="{006FD09B-0722-46E6-A5D0-FCBEED71FA87}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>